--- a/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_xgb_st.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base1/b1_ci_results_gs_xgb_st.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>393.2350894451141</v>
+        <v>175.6326516151428</v>
       </c>
       <c r="C2">
-        <v>16.57754099624513</v>
+        <v>2.783552277093058</v>
       </c>
       <c r="D2">
-        <v>6.802751636505127</v>
+        <v>1.637707805633545</v>
       </c>
       <c r="E2">
-        <v>0.9879117555315078</v>
+        <v>0.1229069258522101</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>844.3946080684661</v>
+        <v>344.0073203086853</v>
       </c>
       <c r="C3">
-        <v>124.2188228187044</v>
+        <v>2.153519106192344</v>
       </c>
       <c r="D3">
-        <v>8.424288940429687</v>
+        <v>1.665207242965698</v>
       </c>
       <c r="E3">
-        <v>0.3897891033505936</v>
+        <v>0.1956941583614969</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1723.036503791809</v>
+        <v>689.87491106987</v>
       </c>
       <c r="C4">
-        <v>146.1474477308638</v>
+        <v>5.338644944978371</v>
       </c>
       <c r="D4">
-        <v>7.713609457015991</v>
+        <v>1.633451986312866</v>
       </c>
       <c r="E4">
-        <v>0.6773395891702105</v>
+        <v>0.114246595484618</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>538.0693399906158</v>
+        <v>178.3612462520599</v>
       </c>
       <c r="C5">
-        <v>63.81207675759731</v>
+        <v>2.837976637256868</v>
       </c>
       <c r="D5">
-        <v>7.268108558654785</v>
+        <v>1.604144334793091</v>
       </c>
       <c r="E5">
-        <v>0.2736716902446302</v>
+        <v>0.04503669638468374</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>897.6956449508667</v>
+        <v>347.7904633998871</v>
       </c>
       <c r="C6">
-        <v>102.6793843906095</v>
+        <v>1.99740067499088</v>
       </c>
       <c r="D6">
-        <v>6.92346305847168</v>
+        <v>1.62903528213501</v>
       </c>
       <c r="E6">
-        <v>1.030041770426296</v>
+        <v>0.09638317368159781</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1815.807520580292</v>
+        <v>694.2723443508148</v>
       </c>
       <c r="C7">
-        <v>55.48171475964846</v>
+        <v>1.242448364147366</v>
       </c>
       <c r="D7">
-        <v>7.899879312515258</v>
+        <v>1.713821458816528</v>
       </c>
       <c r="E7">
-        <v>0.734940491866094</v>
+        <v>0.205582875125334</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>497.9949374198914</v>
+        <v>178.9650043487549</v>
       </c>
       <c r="C8">
-        <v>56.30988669688785</v>
+        <v>0.7040634891888485</v>
       </c>
       <c r="D8">
-        <v>7.489621925354004</v>
+        <v>1.682955503463745</v>
       </c>
       <c r="E8">
-        <v>0.3448577094370504</v>
+        <v>0.1436807621405558</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>918.7549653053284</v>
+        <v>348.6202109336853</v>
       </c>
       <c r="C9">
-        <v>111.9533005208429</v>
+        <v>1.907522674659164</v>
       </c>
       <c r="D9">
-        <v>7.951015377044678</v>
+        <v>1.732587862014771</v>
       </c>
       <c r="E9">
-        <v>0.4064981179122497</v>
+        <v>0.222965759323674</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1582.30345492363</v>
+        <v>690.2973899841309</v>
       </c>
       <c r="C10">
-        <v>161.1941768177989</v>
+        <v>2.431504339423691</v>
       </c>
       <c r="D10">
-        <v>7.080424737930298</v>
+        <v>1.660965967178345</v>
       </c>
       <c r="E10">
-        <v>0.3147198358820537</v>
+        <v>0.1926655467842077</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>729.0757628917694</v>
+        <v>292.2304166793823</v>
       </c>
       <c r="C11">
-        <v>98.29915941920257</v>
+        <v>1.637775234940798</v>
       </c>
       <c r="D11">
-        <v>7.095033502578735</v>
+        <v>1.60712251663208</v>
       </c>
       <c r="E11">
-        <v>0.1225354146540894</v>
+        <v>0.07266480794412744</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1471.901682901382</v>
+        <v>573.4947679519653</v>
       </c>
       <c r="C12">
-        <v>135.2214748173552</v>
+        <v>1.987377647349666</v>
       </c>
       <c r="D12">
-        <v>7.027857112884521</v>
+        <v>1.638145923614502</v>
       </c>
       <c r="E12">
-        <v>0.6365390437787979</v>
+        <v>0.2057294217775834</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2633.151186513901</v>
+        <v>1136.419561052322</v>
       </c>
       <c r="C13">
-        <v>262.9623672588274</v>
+        <v>4.600802567336125</v>
       </c>
       <c r="D13">
-        <v>7.04837064743042</v>
+        <v>1.608305406570435</v>
       </c>
       <c r="E13">
-        <v>0.296516882595399</v>
+        <v>0.1077966539801735</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>747.737745809555</v>
+        <v>290.8895393371582</v>
       </c>
       <c r="C14">
-        <v>87.17794121204321</v>
+        <v>1.39301218110744</v>
       </c>
       <c r="D14">
-        <v>6.657343864440918</v>
+        <v>1.544513845443725</v>
       </c>
       <c r="E14">
-        <v>0.4365042047956333</v>
+        <v>0.0504706129109295</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1396.841155338287</v>
+        <v>577.1466466426849</v>
       </c>
       <c r="C15">
-        <v>128.6251751222564</v>
+        <v>2.645893417815718</v>
       </c>
       <c r="D15">
-        <v>6.695104598999023</v>
+        <v>1.633072376251221</v>
       </c>
       <c r="E15">
-        <v>0.5968155833360161</v>
+        <v>0.1465522197038826</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2582.503631925583</v>
+        <v>1158.428579950333</v>
       </c>
       <c r="C16">
-        <v>165.6227887362358</v>
+        <v>4.820982864573175</v>
       </c>
       <c r="D16">
-        <v>10.04015183448792</v>
+        <v>1.705912733078003</v>
       </c>
       <c r="E16">
-        <v>6.750242460323421</v>
+        <v>0.187090630444331</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>670.9142018795013</v>
+        <v>298.0820672988892</v>
       </c>
       <c r="C17">
-        <v>100.3627328980199</v>
+        <v>2.21276743162678</v>
       </c>
       <c r="D17">
-        <v>6.536674833297729</v>
+        <v>1.62284426689148</v>
       </c>
       <c r="E17">
-        <v>0.1958258061715624</v>
+        <v>0.1323213834214018</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1313.737518262863</v>
+        <v>580.9934951782227</v>
       </c>
       <c r="C18">
-        <v>141.6581311809173</v>
+        <v>4.707513736109631</v>
       </c>
       <c r="D18">
-        <v>6.405273580551148</v>
+        <v>1.55162181854248</v>
       </c>
       <c r="E18">
-        <v>0.5906305985528886</v>
+        <v>0.04567344913507335</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2326.182651805878</v>
+        <v>935.7997517585754</v>
       </c>
       <c r="C19">
-        <v>26.089049700503</v>
+        <v>34.40619817686384</v>
       </c>
       <c r="D19">
-        <v>4.113399934768677</v>
+        <v>1.022534561157227</v>
       </c>
       <c r="E19">
-        <v>0.7135632795831883</v>
+        <v>0.2185300749728398</v>
       </c>
       <c r="F19">
         <v>2</v>
